--- a/Fuzzy/regras.xlsx
+++ b/Fuzzy/regras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mestrado\GitHub\Mestrado\ICA\Fuzzy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B660F94-4910-4754-8925-97A3D86639AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A2C5E438-72B6-4697-AC4C-C89046C77EB4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{115D71EE-5ADB-43CA-A8AF-6005ABF9CB01}"/>
   </bookViews>
@@ -1861,12 +1861,12 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="1" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
